--- a/src/main/java/com/bdhillon/TestData/TestDataFile.xlsx
+++ b/src/main/java/com/bdhillon/TestData/TestDataFile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -42,19 +42,13 @@
     <t>Browser</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>bdhillon</t>
   </si>
   <si>
     <t>sbdfkjsbk</t>
   </si>
   <si>
-    <t>anything</t>
-  </si>
-  <si>
-    <t>firefox</t>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
@@ -470,9 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -506,10 +498,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,26 +536,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
